--- a/Cliente Pedro.xlsx
+++ b/Cliente Pedro.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27207"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6fe4b85e0ad2cbbb/Documentos/Consorcio Automation/Clientes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{8C6E903E-3821-4276-8DAA-E46734A9B6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{138F90E8-D326-4BB9-9CAE-813CCA32E488}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B28021AD-B0EE-489C-B413-8D1F3DFB9DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0546E9E3-F5E5-492F-A3A7-2DC761421DB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,31 +41,55 @@
     <t xml:space="preserve">Nome </t>
   </si>
   <si>
+    <t>Pedro Gabriel da Rocha</t>
+  </si>
+  <si>
     <t>CPF</t>
   </si>
   <si>
+    <t>02052286667</t>
+  </si>
+  <si>
     <t>Data Nascimento</t>
   </si>
   <si>
     <t xml:space="preserve">Grupo </t>
   </si>
   <si>
+    <t>veículos leves</t>
+  </si>
+  <si>
     <t>Genero</t>
   </si>
   <si>
+    <t>Masculino</t>
+  </si>
+  <si>
     <t>Nacionalidade</t>
   </si>
   <si>
+    <t>Brasileiro</t>
+  </si>
+  <si>
     <t>Estado Civil</t>
   </si>
   <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Residencia Exterior</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Exposto Politicamente</t>
+  </si>
+  <si>
     <t>Tipo Documento</t>
   </si>
   <si>
-    <t>Exposto Politicamente</t>
-  </si>
-  <si>
-    <t>Residencia Exterior</t>
+    <t>RG</t>
   </si>
   <si>
     <t>Numero Documento</t>
@@ -74,27 +98,54 @@
     <t>Orgao Expedidor</t>
   </si>
   <si>
+    <t>SSP</t>
+  </si>
+  <si>
+    <t>UF Expedidor</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
     <t>Data Expediçao</t>
   </si>
   <si>
     <t>CEP</t>
   </si>
   <si>
+    <t>32310-010</t>
+  </si>
+  <si>
     <t>Logradouro</t>
   </si>
   <si>
+    <t>Avenida Mal Castelo Branco</t>
+  </si>
+  <si>
     <t>Numero Residencia</t>
   </si>
   <si>
     <t>Complemento</t>
   </si>
   <si>
+    <t>Bloco E Ap 301</t>
+  </si>
+  <si>
     <t>Bairro</t>
   </si>
   <si>
+    <t>JK</t>
+  </si>
+  <si>
     <t>Cidade</t>
   </si>
   <si>
+    <t>Contagem</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -104,12 +155,18 @@
     <t>Email</t>
   </si>
   <si>
+    <t>pedro_gabriel95@hotmail.com.br</t>
+  </si>
+  <si>
     <t>Autorizaçao</t>
   </si>
   <si>
     <t>Profissao</t>
   </si>
   <si>
+    <t>autônomo</t>
+  </si>
+  <si>
     <t>Renda Mensal</t>
   </si>
   <si>
@@ -119,71 +176,14 @@
     <t>Numero_ Grupo_Possiveis</t>
   </si>
   <si>
-    <t>autônomo</t>
-  </si>
-  <si>
-    <t>Pedro Gabriel da Rocha</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>RG</t>
-  </si>
-  <si>
-    <t>Avenida Mal Castelo Branco</t>
-  </si>
-  <si>
-    <t>JK</t>
-  </si>
-  <si>
-    <t>Contagem</t>
-  </si>
-  <si>
-    <t>MG</t>
-  </si>
-  <si>
-    <t>SSP</t>
-  </si>
-  <si>
-    <t>32310-010</t>
-  </si>
-  <si>
-    <t>Bloco E Ap 301</t>
-  </si>
-  <si>
-    <t>veículos leves</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>Brasileiro</t>
-  </si>
-  <si>
-    <t>UF Expedidor</t>
-  </si>
-  <si>
-    <t>02052286667</t>
-  </si>
-  <si>
-    <t>pedro_gabriel95@hotmail.com.br</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>020372,020360,020365,020362,020280,020261,020268,020278,020285,020287,020298,020334,020373,020417,020415,020368,020284,020269,020319,020323,020303</t>
+    <t>020372,020360,020365,020362,020280,020261,020268,020278,020285,020287,020298,020334,020373,020417,020415,020368,020284,020319,020323,020303</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,7 +229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -243,10 +243,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -568,238 +564,238 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D11C0D5-EE34-46C0-A1C1-A7ED8DCB01A8}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>34890</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>17031726</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <v>39277</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>245</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B22">
         <v>31971356483</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B26">
         <v>15000</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B27">
         <v>300000</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>46</v>

--- a/Cliente Pedro.xlsx
+++ b/Cliente Pedro.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27217"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6fe4b85e0ad2cbbb/Documentos/Consorcio Automation/Clientes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B28021AD-B0EE-489C-B413-8D1F3DFB9DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C449415-9B2F-45C6-B868-259FAF6C13F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0546E9E3-F5E5-492F-A3A7-2DC761421DB9}"/>
   </bookViews>
@@ -176,7 +176,7 @@
     <t>Numero_ Grupo_Possiveis</t>
   </si>
   <si>
-    <t>020372,020360,020365,020362,020280,020261,020268,020278,020285,020287,020298,020334,020373,020417,020415,020368,020284,020319,020323,020303</t>
+    <t>020372,020365,020362,020280,020261,020268,020278,020285,020287,020298,020334,020373,020417,020415,020368,020284,020319,020323,020303,020297,020304,020303,020314,020317</t>
   </si>
 </sst>
 </file>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D11C0D5-EE34-46C0-A1C1-A7ED8DCB01A8}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
